--- a/ig/ch-epreg/StructureDefinition-ch-epreg-observation-blood-pressure.xlsx
+++ b/ig/ch-epreg/StructureDefinition-ch-epreg-observation-blood-pressure.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4012" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4012" uniqueCount="585">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T15:10:51+00:00</t>
+    <t>2025-12-16T12:22:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -389,7 +389,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -525,7 +525,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -554,7 +554,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
 </t>
   </si>
   <si>
@@ -645,7 +645,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -821,7 +821,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -866,7 +866,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1104,7 +1104,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -1136,7 +1136,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1192,7 +1192,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1225,7 +1225,7 @@
     <t>Methods for simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods|4.0.1</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1237,7 +1237,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -1265,7 +1265,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
 </t>
   </si>
   <si>
@@ -1345,7 +1345,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1395,7 +1395,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1428,7 +1428,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1465,7 +1465,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
+    <t xml:space="preserve">Reference(Observation|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -1487,7 +1487,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|Observation|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -1553,6 +1553,9 @@
   </si>
   <si>
     <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -2196,7 +2199,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="95.26171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="122.43359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2211,7 +2214,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="78.95703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="43.2890625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="47.7421875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -7164,7 +7167,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
         <v>328</v>
       </c>
@@ -10197,7 +10200,7 @@
         <v>487</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>212</v>
+        <v>488</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>84</v>
@@ -10236,7 +10239,7 @@
         <v>84</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>216</v>
@@ -10251,12 +10254,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10282,13 +10285,13 @@
         <v>329</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>331</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>333</v>
@@ -10340,7 +10343,7 @@
         <v>84</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>82</v>
@@ -10361,7 +10364,7 @@
         <v>84</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>336</v>
@@ -10378,10 +10381,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10407,13 +10410,13 @@
         <v>193</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>343</v>
@@ -10465,7 +10468,7 @@
         <v>84</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>82</v>
@@ -10503,10 +10506,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10590,7 +10593,7 @@
         <v>84</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>82</v>
@@ -10628,10 +10631,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10657,10 +10660,10 @@
         <v>85</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>409</v>
@@ -10715,7 +10718,7 @@
         <v>84</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>82</v>
@@ -10753,13 +10756,13 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>471</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>84</v>
@@ -10880,7 +10883,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>480</v>
@@ -11001,7 +11004,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>481</v>
@@ -11124,7 +11127,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>482</v>
@@ -11249,7 +11252,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>483</v>
@@ -11297,7 +11300,7 @@
         <v>84</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>84</v>
@@ -11318,7 +11321,7 @@
         <v>487</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>212</v>
+        <v>488</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>84</v>
@@ -11351,13 +11354,13 @@
         <v>107</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>216</v>
@@ -11372,12 +11375,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11400,16 +11403,16 @@
         <v>96</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M75" t="s" s="2">
         <v>331</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>333</v>
@@ -11461,7 +11464,7 @@
         <v>84</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>82</v>
@@ -11476,13 +11479,13 @@
         <v>107</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>336</v>
@@ -11499,10 +11502,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11620,10 +11623,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11743,10 +11746,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11769,19 +11772,19 @@
         <v>96</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>84</v>
@@ -11830,7 +11833,7 @@
         <v>84</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>82</v>
@@ -11854,10 +11857,10 @@
         <v>84</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AP78" t="s" s="2">
         <v>84</v>
@@ -11868,10 +11871,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11897,20 +11900,20 @@
         <v>115</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q79" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="R79" t="s" s="2">
         <v>84</v>
@@ -11934,10 +11937,10 @@
         <v>184</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>84</v>
@@ -11955,7 +11958,7 @@
         <v>84</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>82</v>
@@ -11979,10 +11982,10 @@
         <v>84</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AP79" t="s" s="2">
         <v>84</v>
@@ -11993,10 +11996,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12022,14 +12025,14 @@
         <v>232</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>84</v>
@@ -12078,7 +12081,7 @@
         <v>84</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>82</v>
@@ -12102,10 +12105,10 @@
         <v>84</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AP80" t="s" s="2">
         <v>84</v>
@@ -12116,10 +12119,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12145,14 +12148,14 @@
         <v>109</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>84</v>
@@ -12162,7 +12165,7 @@
         <v>84</v>
       </c>
       <c r="S81" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="T81" t="s" s="2">
         <v>84</v>
@@ -12201,7 +12204,7 @@
         <v>84</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>82</v>
@@ -12210,7 +12213,7 @@
         <v>95</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>107</v>
@@ -12225,10 +12228,10 @@
         <v>84</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AP81" t="s" s="2">
         <v>84</v>
@@ -12239,10 +12242,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12268,16 +12271,16 @@
         <v>115</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>84</v>
@@ -12287,7 +12290,7 @@
         <v>84</v>
       </c>
       <c r="S82" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="T82" t="s" s="2">
         <v>84</v>
@@ -12326,7 +12329,7 @@
         <v>84</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>82</v>
@@ -12350,10 +12353,10 @@
         <v>84</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AP82" t="s" s="2">
         <v>84</v>
@@ -12364,10 +12367,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12393,13 +12396,13 @@
         <v>193</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>343</v>
@@ -12451,7 +12454,7 @@
         <v>84</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>82</v>
@@ -12489,10 +12492,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12576,7 +12579,7 @@
         <v>84</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>82</v>
@@ -12614,10 +12617,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12643,10 +12646,10 @@
         <v>85</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N85" t="s" s="2">
         <v>409</v>
@@ -12701,7 +12704,7 @@
         <v>84</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>82</v>
@@ -12739,13 +12742,13 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>471</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D86" t="s" s="2">
         <v>84</v>
@@ -12866,7 +12869,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>480</v>
@@ -12987,7 +12990,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>481</v>
@@ -13110,7 +13113,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>482</v>
@@ -13235,7 +13238,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>483</v>
@@ -13283,7 +13286,7 @@
         <v>84</v>
       </c>
       <c r="S90" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="T90" t="s" s="2">
         <v>84</v>
@@ -13304,7 +13307,7 @@
         <v>487</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>212</v>
+        <v>488</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>84</v>
@@ -13337,13 +13340,13 @@
         <v>107</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>216</v>
@@ -13358,12 +13361,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="91" hidden="true">
+    <row r="91">
       <c r="A91" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13386,16 +13389,16 @@
         <v>96</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M91" t="s" s="2">
         <v>331</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>333</v>
@@ -13447,7 +13450,7 @@
         <v>84</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>82</v>
@@ -13462,13 +13465,13 @@
         <v>107</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>336</v>
@@ -13485,10 +13488,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13606,10 +13609,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13729,10 +13732,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13755,19 +13758,19 @@
         <v>96</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>84</v>
@@ -13816,7 +13819,7 @@
         <v>84</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>82</v>
@@ -13840,10 +13843,10 @@
         <v>84</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AP94" t="s" s="2">
         <v>84</v>
@@ -13854,10 +13857,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13883,20 +13886,20 @@
         <v>115</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q95" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="R95" t="s" s="2">
         <v>84</v>
@@ -13920,10 +13923,10 @@
         <v>184</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>84</v>
@@ -13941,7 +13944,7 @@
         <v>84</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>82</v>
@@ -13965,10 +13968,10 @@
         <v>84</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AO95" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AP95" t="s" s="2">
         <v>84</v>
@@ -13979,10 +13982,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14008,14 +14011,14 @@
         <v>232</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>84</v>
@@ -14064,7 +14067,7 @@
         <v>84</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>82</v>
@@ -14088,10 +14091,10 @@
         <v>84</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AO96" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AP96" t="s" s="2">
         <v>84</v>
@@ -14102,10 +14105,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14131,14 +14134,14 @@
         <v>109</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>84</v>
@@ -14148,7 +14151,7 @@
         <v>84</v>
       </c>
       <c r="S97" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="T97" t="s" s="2">
         <v>84</v>
@@ -14187,7 +14190,7 @@
         <v>84</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>82</v>
@@ -14196,7 +14199,7 @@
         <v>95</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>107</v>
@@ -14211,10 +14214,10 @@
         <v>84</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AO97" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AP97" t="s" s="2">
         <v>84</v>
@@ -14225,10 +14228,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14254,16 +14257,16 @@
         <v>115</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>84</v>
@@ -14273,7 +14276,7 @@
         <v>84</v>
       </c>
       <c r="S98" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="T98" t="s" s="2">
         <v>84</v>
@@ -14312,7 +14315,7 @@
         <v>84</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>82</v>
@@ -14336,10 +14339,10 @@
         <v>84</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AP98" t="s" s="2">
         <v>84</v>
@@ -14350,10 +14353,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14379,13 +14382,13 @@
         <v>193</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>343</v>
@@ -14437,7 +14440,7 @@
         <v>84</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>82</v>
@@ -14475,10 +14478,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14562,7 +14565,7 @@
         <v>84</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>82</v>
@@ -14600,10 +14603,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14629,10 +14632,10 @@
         <v>85</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N101" t="s" s="2">
         <v>409</v>
@@ -14687,7 +14690,7 @@
         <v>84</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>82</v>
@@ -14725,12 +14728,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AQ101">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
